--- a/___Cost_Analysis-Notas___/Labs/David_Corzo_-_Presupuesto13.xlsx
+++ b/___Cost_Analysis-Notas___/Labs/David_Corzo_-_Presupuesto13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\3_Semestre-[Enero-Mayo-2020]\____SumaDeCursosUFM2.1____\___Cost_Analysis-Notas___\Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB08BBC3-E295-4767-A173-8959D40D0AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE83514-4754-425D-B5F0-E2681BBBC59E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8025" yWindow="4080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29925" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Presupuestos" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,30 @@
     <author>DAVID CORZO</author>
   </authors>
   <commentList>
+    <comment ref="B28" authorId="0" shapeId="0" xr:uid="{CD534787-056B-4135-9367-0C7FB496DC51}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>DAVID CORZO:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+En el balance general de septiembre se encuentra el inventario de material directo a esa manitud de divide por 16</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A44" authorId="0" shapeId="0" xr:uid="{9EE325E3-2C67-4CCA-8695-B9F869479041}">
       <text>
         <r>
@@ -373,7 +397,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;Q&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +456,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -613,6 +650,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -622,12 +665,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -910,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +991,7 @@
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="37">
         <v>86300</v>
       </c>
       <c r="C9" s="24">
@@ -1051,11 +1088,11 @@
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="36">
         <f>C9*0.6</f>
         <v>54150</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="36">
         <f>D9*0.6</f>
         <v>61476</v>
       </c>
@@ -1076,7 +1113,7 @@
         <f>C15+C16</f>
         <v>151726</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="35">
         <f>D15+D16</f>
         <v>161710</v>
       </c>
@@ -1187,15 +1224,15 @@
       <c r="A26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="41">
+      <c r="B26" s="38">
         <f>C25*0.7</f>
         <v>136606.39999999999</v>
       </c>
-      <c r="C26" s="41">
-        <f t="shared" ref="C26:D26" si="2">D25*0.7</f>
+      <c r="C26" s="38">
+        <f t="shared" ref="C26" si="2">D25*0.7</f>
         <v>140327.59999999998</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="38">
         <f>97175*2*0.7</f>
         <v>136045</v>
       </c>
@@ -1204,15 +1241,15 @@
       <c r="A27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="43">
+      <c r="B27" s="40">
         <f>B25+B26</f>
         <v>313906.40000000002</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="40">
         <f>C25+C26</f>
         <v>335479.59999999998</v>
       </c>
-      <c r="D27" s="43">
+      <c r="D27" s="40">
         <f>ROUNDUP(D25+D26,0)</f>
         <v>336513</v>
       </c>
@@ -1222,10 +1259,10 @@
         <v>7</v>
       </c>
       <c r="B28" s="18">
-        <f>ROUNDUP(C19*0.7,0)</f>
-        <v>68304</v>
-      </c>
-      <c r="C28" s="41">
+        <f>1985600/16</f>
+        <v>124100</v>
+      </c>
+      <c r="C28" s="38">
         <f>B26</f>
         <v>136606.39999999999</v>
       </c>
@@ -1238,15 +1275,15 @@
       <c r="A29" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="43">
+      <c r="B29" s="40">
         <f>ROUNDUP(B27-B28,0)</f>
-        <v>245603</v>
-      </c>
-      <c r="C29" s="43">
+        <v>189807</v>
+      </c>
+      <c r="C29" s="40">
         <f t="shared" ref="C29:D29" si="3">ROUNDUP(C27-C28,0)</f>
         <v>198874</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="40">
         <f t="shared" si="3"/>
         <v>196186</v>
       </c>
@@ -1271,7 +1308,7 @@
       </c>
       <c r="B31" s="31">
         <f>B29*B30</f>
-        <v>4052449.5</v>
+        <v>3131815.5</v>
       </c>
       <c r="C31" s="31">
         <f t="shared" ref="C31:D31" si="4">C29*C30</f>
@@ -1424,15 +1461,15 @@
       <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="42">
+      <c r="B44" s="39">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="C44" s="42">
+      <c r="C44" s="39">
         <f t="shared" ref="C44:D44" si="9">1/2</f>
         <v>0.5</v>
       </c>
-      <c r="D44" s="42">
+      <c r="D44" s="39">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
@@ -1603,14 +1640,14 @@
       </c>
       <c r="B58" s="17">
         <f>B28</f>
-        <v>68304</v>
+        <v>124100</v>
       </c>
       <c r="C58" s="24">
         <f>C28</f>
         <v>136606.39999999999</v>
       </c>
       <c r="D58" s="17">
-        <f t="shared" ref="C58:D58" si="16">D28</f>
+        <f t="shared" ref="D58" si="16">D28</f>
         <v>140327.59999999998</v>
       </c>
       <c r="E58" t="s">
@@ -1637,7 +1674,7 @@
       </c>
       <c r="B60" s="32">
         <f>B58*B59</f>
-        <v>1127016</v>
+        <v>2047650</v>
       </c>
       <c r="C60" s="32">
         <f t="shared" ref="C60:D60" si="17">C58*C59</f>
@@ -1654,7 +1691,7 @@
       </c>
       <c r="B61" s="14">
         <f>B31</f>
-        <v>4052449.5</v>
+        <v>3131815.5</v>
       </c>
       <c r="C61" s="14">
         <f t="shared" ref="C61:D61" si="18">C31</f>
@@ -1915,12 +1952,12 @@
     </row>
     <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="85" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A85" s="35" t="s">
+      <c r="A85" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B85" s="36"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="37"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="43"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
